--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H2">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I2">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J2">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N2">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O2">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P2">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q2">
-        <v>13.19314622128</v>
+        <v>6.763512442480501</v>
       </c>
       <c r="R2">
-        <v>52.77258488512</v>
+        <v>27.054049769922</v>
       </c>
       <c r="S2">
-        <v>0.02569727941216775</v>
+        <v>0.02155603557012284</v>
       </c>
       <c r="T2">
-        <v>0.0146090587083861</v>
+        <v>0.01189346360600459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H3">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I3">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J3">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.059622</v>
       </c>
       <c r="O3">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P3">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q3">
-        <v>11.909050900005</v>
+        <v>7.261300908666001</v>
       </c>
       <c r="R3">
-        <v>71.45430540003001</v>
+        <v>43.56780545199601</v>
       </c>
       <c r="S3">
-        <v>0.02319615074208321</v>
+        <v>0.02314254050742377</v>
       </c>
       <c r="T3">
-        <v>0.01978072790689329</v>
+        <v>0.01915321783405948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H4">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I4">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J4">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N4">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O4">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P4">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q4">
-        <v>60.10025701033833</v>
+        <v>17.803714104811</v>
       </c>
       <c r="R4">
-        <v>360.60154206203</v>
+        <v>106.822284628866</v>
       </c>
       <c r="S4">
-        <v>0.1170617736841788</v>
+        <v>0.05674233584803671</v>
       </c>
       <c r="T4">
-        <v>0.09982548912066196</v>
+        <v>0.04696106369835159</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H5">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I5">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J5">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N5">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O5">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P5">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q5">
-        <v>13.7474849769925</v>
+        <v>6.8531870302995</v>
       </c>
       <c r="R5">
-        <v>54.98993990797</v>
+        <v>27.412748121198</v>
       </c>
       <c r="S5">
-        <v>0.02677700654136161</v>
+        <v>0.02184183804645473</v>
       </c>
       <c r="T5">
-        <v>0.01522289010922931</v>
+        <v>0.01205115407463003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H6">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I6">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J6">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N6">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O6">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P6">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q6">
-        <v>10.189477069845</v>
+        <v>70.99433493439</v>
       </c>
       <c r="R6">
-        <v>61.13686241907001</v>
+        <v>425.96600960634</v>
       </c>
       <c r="S6">
-        <v>0.0198468079513394</v>
+        <v>0.2262665178984533</v>
       </c>
       <c r="T6">
-        <v>0.01692454546751896</v>
+        <v>0.1872625827087998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H7">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I7">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J7">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N7">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O7">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P7">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q7">
-        <v>88.22178020830501</v>
+        <v>21.169037848648</v>
       </c>
       <c r="R7">
-        <v>529.33068124983</v>
+        <v>127.014227091888</v>
       </c>
       <c r="S7">
-        <v>0.1718361714656804</v>
+        <v>0.06746798157487807</v>
       </c>
       <c r="T7">
-        <v>0.1465348535676753</v>
+        <v>0.05583781726614778</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H8">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I8">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J8">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N8">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O8">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P8">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q8">
-        <v>3.195325663722667</v>
+        <v>2.686592278252167</v>
       </c>
       <c r="R8">
-        <v>19.171953982336</v>
+        <v>16.119553669513</v>
       </c>
       <c r="S8">
-        <v>0.006223775209973024</v>
+        <v>0.008562456150547406</v>
       </c>
       <c r="T8">
-        <v>0.00530738075256566</v>
+        <v>0.007086455689400596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H9">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I9">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J9">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>39.059622</v>
       </c>
       <c r="O9">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P9">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q9">
         <v>2.884323066926</v>
       </c>
       <c r="R9">
-        <v>25.958907602334</v>
+        <v>25.95890760233401</v>
       </c>
       <c r="S9">
-        <v>0.005618012149839342</v>
+        <v>0.009192645264592772</v>
       </c>
       <c r="T9">
-        <v>0.007186216214226009</v>
+        <v>0.0114120187345573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H10">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I10">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J10">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N10">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O10">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P10">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q10">
-        <v>14.55603465621489</v>
+        <v>7.071964640409889</v>
       </c>
       <c r="R10">
-        <v>131.004311905934</v>
+        <v>63.647681763689</v>
       </c>
       <c r="S10">
-        <v>0.02835187933342413</v>
+        <v>0.02253910562533367</v>
       </c>
       <c r="T10">
-        <v>0.0362659833292561</v>
+        <v>0.02798070503679641</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H11">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I11">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J11">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N11">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O11">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P11">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q11">
-        <v>3.329584226677667</v>
+        <v>2.722212683661167</v>
       </c>
       <c r="R11">
-        <v>19.977505360066</v>
+        <v>16.333276101967</v>
       </c>
       <c r="S11">
-        <v>0.006485280672571924</v>
+        <v>0.008675982181962083</v>
       </c>
       <c r="T11">
-        <v>0.005530381907341331</v>
+        <v>0.007180412046906985</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H12">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I12">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J12">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N12">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O12">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P12">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q12">
-        <v>2.467849369294</v>
+        <v>28.20026334784556</v>
       </c>
       <c r="R12">
-        <v>22.210644323646</v>
+        <v>253.80237013061</v>
       </c>
       <c r="S12">
-        <v>0.004806815124022567</v>
+        <v>0.08987724721181257</v>
       </c>
       <c r="T12">
-        <v>0.006148582783685433</v>
+        <v>0.1115762437763424</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H13">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I13">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J13">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N13">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O13">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P13">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q13">
-        <v>21.366951724086</v>
+        <v>8.408733495483556</v>
       </c>
       <c r="R13">
-        <v>192.302565516774</v>
+        <v>75.67860145935201</v>
       </c>
       <c r="S13">
-        <v>0.04161801282506109</v>
+        <v>0.0267995305501132</v>
       </c>
       <c r="T13">
-        <v>0.05323520679389643</v>
+        <v>0.03326972116429</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H14">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I14">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J14">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N14">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O14">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P14">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q14">
-        <v>1.826791217173333</v>
+        <v>2.5869380925675</v>
       </c>
       <c r="R14">
-        <v>10.96074730304</v>
+        <v>15.521628555405</v>
       </c>
       <c r="S14">
-        <v>0.003558178128858994</v>
+        <v>0.008244847631364662</v>
       </c>
       <c r="T14">
-        <v>0.00303426866784094</v>
+        <v>0.00682359668513921</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H15">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I15">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J15">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>39.059622</v>
       </c>
       <c r="O15">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P15">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q15">
-        <v>1.64898874189</v>
+        <v>2.77733442231</v>
       </c>
       <c r="R15">
-        <v>14.84089867701</v>
+        <v>24.99600980079</v>
       </c>
       <c r="S15">
-        <v>0.003211858925622907</v>
+        <v>0.008851661042481114</v>
       </c>
       <c r="T15">
-        <v>0.004108412739865277</v>
+        <v>0.01098871094676363</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H16">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I16">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J16">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N16">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O16">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P16">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q16">
-        <v>8.321792225667778</v>
+        <v>6.809643154884999</v>
       </c>
       <c r="R16">
-        <v>74.89613003101</v>
+        <v>61.28678839396499</v>
       </c>
       <c r="S16">
-        <v>0.01620897824114639</v>
+        <v>0.02170305907099213</v>
       </c>
       <c r="T16">
-        <v>0.02073352978702507</v>
+        <v>0.02694281238821823</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H17">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I17">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J17">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N17">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O17">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P17">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q17">
-        <v>1.903547826498333</v>
+        <v>2.6212372247325</v>
       </c>
       <c r="R17">
-        <v>11.42128695899</v>
+        <v>15.727423348395</v>
       </c>
       <c r="S17">
-        <v>0.003707682727949517</v>
+        <v>0.008354162624019857</v>
       </c>
       <c r="T17">
-        <v>0.00316176007054482</v>
+        <v>0.006914067904847433</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H18">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I18">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J18">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N18">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O18">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P18">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q18">
-        <v>1.41088766141</v>
+        <v>27.15422658865</v>
       </c>
       <c r="R18">
-        <v>12.69798895269</v>
+        <v>244.38803929785</v>
       </c>
       <c r="S18">
-        <v>0.002748091611078585</v>
+        <v>0.08654341648692876</v>
       </c>
       <c r="T18">
-        <v>0.00351519006491934</v>
+        <v>0.107437528793316</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H19">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I19">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J19">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N19">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O19">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P19">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q19">
-        <v>12.21564367929</v>
+        <v>8.09682703468</v>
       </c>
       <c r="R19">
-        <v>109.94079311361</v>
+        <v>72.87144331211999</v>
       </c>
       <c r="S19">
-        <v>0.02379332447023699</v>
+        <v>0.02580545139068065</v>
       </c>
       <c r="T19">
-        <v>0.03043495982885104</v>
+        <v>0.03203564221698497</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H20">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I20">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J20">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N20">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O20">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P20">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q20">
-        <v>5.438133717216001</v>
+        <v>1.290564554461</v>
       </c>
       <c r="R20">
-        <v>21.752534868864</v>
+        <v>5.162258217844</v>
       </c>
       <c r="S20">
-        <v>0.01059226050164037</v>
+        <v>0.004113166890441669</v>
       </c>
       <c r="T20">
-        <v>0.006021764134677698</v>
+        <v>0.002269424753812107</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H21">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I21">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J21">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>39.059622</v>
       </c>
       <c r="O21">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P21">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q21">
-        <v>4.908837524661001</v>
+        <v>1.385548951332</v>
       </c>
       <c r="R21">
-        <v>29.45302514796601</v>
+        <v>8.313293707992001</v>
       </c>
       <c r="S21">
-        <v>0.009561310649061324</v>
+        <v>0.004415892294581981</v>
       </c>
       <c r="T21">
-        <v>0.008153494365737078</v>
+        <v>0.003654678578730022</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H22">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I22">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J22">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N22">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O22">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P22">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q22">
-        <v>24.772956244061</v>
+        <v>3.397176031955333</v>
       </c>
       <c r="R22">
-        <v>148.637737464366</v>
+        <v>20.383056191732</v>
       </c>
       <c r="S22">
-        <v>0.04825214302879746</v>
+        <v>0.01082716236653231</v>
       </c>
       <c r="T22">
-        <v>0.04114745255752817</v>
+        <v>0.008960770718513021</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H23">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I23">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J23">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N23">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O23">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P23">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q23">
-        <v>5.666628742408501</v>
+        <v>1.307675611099</v>
       </c>
       <c r="R23">
-        <v>22.666514969634</v>
+        <v>5.230702444396</v>
       </c>
       <c r="S23">
-        <v>0.01103731738255261</v>
+        <v>0.004167701653062115</v>
       </c>
       <c r="T23">
-        <v>0.006274781662235088</v>
+        <v>0.002299514109175176</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H24">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I24">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J24">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N24">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O24">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P24">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q24">
-        <v>4.200039769509001</v>
+        <v>13.54662581211333</v>
       </c>
       <c r="R24">
-        <v>25.200238617054</v>
+        <v>81.27975487267999</v>
       </c>
       <c r="S24">
-        <v>0.008180732153578611</v>
+        <v>0.04317454138577215</v>
       </c>
       <c r="T24">
-        <v>0.006976193533504293</v>
+        <v>0.03573209241146379</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H25">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I25">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J25">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N25">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O25">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P25">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q25">
-        <v>36.364475121921</v>
+        <v>4.039322782629333</v>
       </c>
       <c r="R25">
-        <v>218.186850731526</v>
+        <v>24.235936695776</v>
       </c>
       <c r="S25">
-        <v>0.07082981285976869</v>
+        <v>0.01287375255417319</v>
       </c>
       <c r="T25">
-        <v>0.06040076525858225</v>
+        <v>0.0106545686690172</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H26">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I26">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J26">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N26">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O26">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P26">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q26">
-        <v>7.829982317461334</v>
+        <v>2.144578126427334</v>
       </c>
       <c r="R26">
-        <v>46.979893904768</v>
+        <v>12.867468758564</v>
       </c>
       <c r="S26">
-        <v>0.01525104323331113</v>
+        <v>0.006834999235873481</v>
       </c>
       <c r="T26">
-        <v>0.0130054654260839</v>
+        <v>0.005656778659124321</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H27">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I27">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J27">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>39.059622</v>
       </c>
       <c r="O27">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P27">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q27">
-        <v>7.067886340438001</v>
+        <v>2.302417158328</v>
       </c>
       <c r="R27">
-        <v>63.610977063942</v>
+        <v>20.721754424952</v>
       </c>
       <c r="S27">
-        <v>0.01376665179763753</v>
+        <v>0.007338049066111792</v>
       </c>
       <c r="T27">
-        <v>0.01760945575146461</v>
+        <v>0.009109668763148794</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H28">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I28">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J28">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N28">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O28">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P28">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q28">
-        <v>35.66881938341578</v>
+        <v>5.645211147765777</v>
       </c>
       <c r="R28">
-        <v>321.019374450742</v>
+        <v>50.806900329892</v>
       </c>
       <c r="S28">
-        <v>0.06947483205479492</v>
+        <v>0.0179918900625936</v>
       </c>
       <c r="T28">
-        <v>0.08886793963360749</v>
+        <v>0.02233565862214407</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H29">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I29">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J29">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N29">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O29">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P29">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q29">
-        <v>8.158976067876335</v>
+        <v>2.173012192479333</v>
       </c>
       <c r="R29">
-        <v>48.953856407258</v>
+        <v>13.038073154876</v>
       </c>
       <c r="S29">
-        <v>0.01589184901136238</v>
+        <v>0.006925621637241511</v>
       </c>
       <c r="T29">
-        <v>0.01355191836466566</v>
+        <v>0.005731779525753059</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H30">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I30">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J30">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N30">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O30">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P30">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q30">
-        <v>6.047338818422001</v>
+        <v>22.51092152123111</v>
       </c>
       <c r="R30">
-        <v>54.426049365798</v>
+        <v>202.59829369108</v>
       </c>
       <c r="S30">
-        <v>0.01177885492289811</v>
+        <v>0.07174470796862153</v>
       </c>
       <c r="T30">
-        <v>0.01506678803362268</v>
+        <v>0.08906597914713736</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H31">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I31">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J31">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N31">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O31">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P31">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q31">
-        <v>52.358623747518</v>
+        <v>6.712289792295111</v>
       </c>
       <c r="R31">
-        <v>471.227613727662</v>
+        <v>60.41060813065599</v>
       </c>
       <c r="S31">
-        <v>0.1019828145242821</v>
+        <v>0.02139278352042494</v>
       </c>
       <c r="T31">
-        <v>0.1304501549231711</v>
+        <v>0.02655762724356937</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H32">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I32">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J32">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N32">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O32">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P32">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q32">
-        <v>2.836664845418666</v>
+        <v>0.7465979050016668</v>
       </c>
       <c r="R32">
-        <v>17.019989072512</v>
+        <v>4.47958743001</v>
       </c>
       <c r="S32">
-        <v>0.005525184660943209</v>
+        <v>0.002379487157547507</v>
       </c>
       <c r="T32">
-        <v>0.004711651326492576</v>
+        <v>0.001969309974729642</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H33">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I33">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J33">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>39.059622</v>
       </c>
       <c r="O33">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P33">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q33">
-        <v>2.560570880042</v>
+        <v>0.8015468430200001</v>
       </c>
       <c r="R33">
-        <v>23.045137920378</v>
+        <v>7.213921587180002</v>
       </c>
       <c r="S33">
-        <v>0.004987415757809713</v>
+        <v>0.002554615284025717</v>
       </c>
       <c r="T33">
-        <v>0.006379596026128813</v>
+        <v>0.003171374141149279</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H34">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I34">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J34">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N34">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O34">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P34">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q34">
-        <v>12.92218576239755</v>
+        <v>1.965282945058889</v>
       </c>
       <c r="R34">
-        <v>116.299671861578</v>
+        <v>17.68754650553</v>
       </c>
       <c r="S34">
-        <v>0.025169509424269</v>
+        <v>0.006263566368705962</v>
       </c>
       <c r="T34">
-        <v>0.03219529112872577</v>
+        <v>0.007775774511840903</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H35">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I35">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J35">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N35">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O35">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P35">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q35">
-        <v>2.955853493403666</v>
+        <v>0.7564967349316667</v>
       </c>
       <c r="R35">
-        <v>17.735120960422</v>
+        <v>4.538980409590001</v>
       </c>
       <c r="S35">
-        <v>0.005757337321018244</v>
+        <v>0.00241103578437245</v>
       </c>
       <c r="T35">
-        <v>0.004909621612720908</v>
+        <v>0.00199542023352987</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H36">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I36">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J36">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N36">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O36">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P36">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q36">
-        <v>2.190844466698</v>
+        <v>7.836789268855556</v>
       </c>
       <c r="R36">
-        <v>19.717600200282</v>
+        <v>70.5311034197</v>
       </c>
       <c r="S36">
-        <v>0.004267271920213588</v>
+        <v>0.02497668329461263</v>
       </c>
       <c r="T36">
-        <v>0.00545843224358765</v>
+        <v>0.03100678525941687</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H37">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I37">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J37">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N37">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O37">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P37">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q37">
-        <v>18.968608269762</v>
+        <v>2.336767980115556</v>
       </c>
       <c r="R37">
-        <v>170.717474427858</v>
+        <v>21.03091182104</v>
       </c>
       <c r="S37">
-        <v>0.03694657957946428</v>
+        <v>0.007447528799107439</v>
       </c>
       <c r="T37">
-        <v>0.04725979619708198</v>
+        <v>0.009245580106188743</v>
       </c>
     </row>
   </sheetData>
